--- a/python/lin/Error t1=6 t2=5.xlsx
+++ b/python/lin/Error t1=6 t2=5.xlsx
@@ -480,22 +480,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.9</v>
+        <v>-3.4</v>
       </c>
       <c r="E2" t="n">
-        <v>5.64</v>
+        <v>5.76</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.04</v>
+        <v>-3.96</v>
       </c>
       <c r="G2" t="n">
-        <v>5.96</v>
+        <v>5.76</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.655</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>4.09</v>
+        <v>4.2</v>
       </c>
       <c r="D3" t="n">
-        <v>-18.2</v>
+        <v>-16.1</v>
       </c>
       <c r="E3" t="n">
-        <v>4.1</v>
+        <v>4.19</v>
       </c>
       <c r="F3" t="n">
-        <v>-18</v>
+        <v>-16.2</v>
       </c>
       <c r="G3" t="n">
-        <v>4.03</v>
+        <v>4.11</v>
       </c>
       <c r="H3" t="n">
-        <v>-19.4</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         <v>2e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>2.01e-05</v>
+        <v>2.03e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.725</v>
+        <v>1.3</v>
       </c>
       <c r="E4" t="n">
-        <v>2.03e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>1.28</v>
+        <v>0.117</v>
       </c>
       <c r="G4" t="n">
         <v>2.02e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>1.11</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         <v>0.95</v>
       </c>
       <c r="C5" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.121</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.95</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.949</v>
-      </c>
       <c r="F5" t="n">
-        <v>-0.0543</v>
+        <v>-0.0235</v>
       </c>
       <c r="G5" t="n">
         <v>0.95</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0187</v>
+        <v>-0.00701</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>39.2</v>
+        <v>48.4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>46.9</v>
+        <v>45.8</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>48</v>
+        <v>46.6</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0.247</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.239</v>
+        <v>0.234</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.245</v>
+        <v>0.238</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
